--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_7.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_12</t>
+          <t>model_2_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6067335598708921</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02596468678081443</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2547954685794721</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2440168195387407</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4352300465106964</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G2" t="n">
-        <v>1.287085294723511</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H2" t="n">
-        <v>1.090681314468384</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I2" t="n">
-        <v>1.194658994674683</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_13</t>
+          <t>model_2_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6073885582094201</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01646775639704201</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2644031958354831</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2439974952569909</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4345051646232605</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G3" t="n">
-        <v>1.299634575843811</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H3" t="n">
-        <v>1.076619505882263</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I3" t="n">
-        <v>1.194689631462097</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_10</t>
+          <t>model_2_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6081627452969072</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03755140348999109</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2536706203896433</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2486552622298387</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4336483776569366</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G4" t="n">
-        <v>1.271774768829346</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09232771396637</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I4" t="n">
-        <v>1.187329053878784</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_11</t>
+          <t>model_2_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6084081440515479</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0288768725931956</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2615082449613291</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2482331853396672</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4333767890930176</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G5" t="n">
-        <v>1.283237218856812</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H5" t="n">
-        <v>1.080856561660767</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I5" t="n">
-        <v>1.187996029853821</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_9</t>
+          <t>model_2_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6121870158805252</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05380230592388024</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2599699203851655</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2585944106291372</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4291947185993195</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G6" t="n">
-        <v>1.250300884246826</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H6" t="n">
-        <v>1.083107948303223</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I6" t="n">
-        <v>1.171622395515442</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_8</t>
+          <t>model_2_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6133956091539929</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07461160509855491</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2471412111776424</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2622150456477454</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4278571605682373</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G7" t="n">
-        <v>1.222803592681885</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H7" t="n">
-        <v>1.101884126663208</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I7" t="n">
-        <v>1.165900826454163</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_7</t>
+          <t>model_2_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6137283268806575</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07562294335560515</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2481223373239901</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2630907446018542</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4274889528751373</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G8" t="n">
-        <v>1.221467256546021</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H8" t="n">
-        <v>1.100448131561279</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I8" t="n">
-        <v>1.164517045021057</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_6</t>
+          <t>model_2_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6214047731226658</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1446891394815519</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2378301088873971</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2891798015458467</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4189933836460114</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G9" t="n">
-        <v>1.130203485488892</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H9" t="n">
-        <v>1.115511775016785</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I9" t="n">
-        <v>1.123289227485657</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_5</t>
+          <t>model_2_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6278865410786467</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1603355130301459</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2603890910107776</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3059387134780941</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4118199348449707</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G10" t="n">
-        <v>1.109528422355652</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H10" t="n">
-        <v>1.082494497299194</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I10" t="n">
-        <v>1.096805691719055</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_4</t>
+          <t>model_2_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6757451371113965</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2199120127580596</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5228303907507196</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E11" t="n">
-        <v>0.446694578009507</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3588545620441437</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G11" t="n">
-        <v>1.030804395675659</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6983854174613953</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8743729591369629</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_14</t>
+          <t>model_2_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.750727590147431</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2634189983702823</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7085629252438537</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5469053924589447</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2758710980415344</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9733144044876099</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4265473186969757</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7160127758979797</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_15</t>
+          <t>model_2_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7531514239166419</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2923671862924676</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D13" t="n">
-        <v>0.69075508110816</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5519568388341279</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2731886506080627</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9350625276565552</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4526108801364899</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I13" t="n">
-        <v>0.708030104637146</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_24</t>
+          <t>model_2_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7838949184049225</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3561207219203852</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6809903259672071</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5759252946453892</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2391646355390549</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8508188724517822</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4669025540351868</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6701533794403076</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_16</t>
+          <t>model_2_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7877220757911934</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3541813436512581</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7784649401859189</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6175514750704617</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2349291145801544</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8533815145492554</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3242387175559998</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6043726801872253</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_17</t>
+          <t>model_2_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7885566171586619</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3735121444496611</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7537285948314749</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6153269747421807</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2340055257081985</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8278379440307617</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3604428470134735</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6078879237174988</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_19</t>
+          <t>model_2_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7900839111926375</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3802218657479434</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7300766180475522</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6079873682745778</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2323152720928192</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8189717531204224</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3950598537921906</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6194865703582764</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_23</t>
+          <t>model_2_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7908465586331244</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3761092891709266</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D18" t="n">
-        <v>0.70703791060335</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5961281997521757</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2314712256193161</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8244060277938843</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4287793040275574</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6382272839546204</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_20</t>
+          <t>model_2_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7938012111937585</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3836806428466571</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7358167194960663</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6120220759891238</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F19" t="n">
-        <v>0.228201299905777</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8144013285636902</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H19" t="n">
-        <v>0.386658638715744</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6131106615066528</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_18</t>
+          <t>model_2_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.794814191137591</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3789976041430633</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7573953199816094</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E20" t="n">
-        <v>0.619353700111019</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F20" t="n">
-        <v>0.227080225944519</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8205894827842712</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3550762236118317</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6015246510505676</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_22</t>
+          <t>model_2_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7950681374902779</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3839896416972889</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7277156815554483</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6086271429930539</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2267992049455643</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G21" t="n">
-        <v>0.813992977142334</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3985152840614319</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6184755563735962</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_21</t>
+          <t>model_2_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7965544589603661</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.385889528019403</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7449455796087779</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6169802603552205</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2251542657613754</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8114825487136841</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3732976317405701</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6052753925323486</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_3</t>
+          <t>model_2_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8094598681241086</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8322508689463999</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8708976594358513</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8694711626362981</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2108718007802963</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2216628640890121</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1889541745185852</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2062710672616959</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_0</t>
+          <t>model_2_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8189786889331432</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9499379645086593</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9721995139066105</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9657212201886124</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2003372609615326</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06615172326564789</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04068879038095474</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05416979640722275</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_2</t>
+          <t>model_2_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8256179505050812</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8972530201034713</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9416153786976112</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9290678869415996</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1929895430803299</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1357693523168564</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08545173704624176</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I25" t="n">
-        <v>0.112092025578022</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_1</t>
+          <t>model_2_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8256274860592385</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9195847787795117</v>
+        <v>0.1341933169903529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9463510398410524</v>
+        <v>0.4512388185747046</v>
       </c>
       <c r="E26" t="n">
-        <v>0.941018768317935</v>
+        <v>0.2880223605302709</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1929789930582047</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1062602698802948</v>
+        <v>1.593163371086121</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07852061837911606</v>
+        <v>0.3132980167865753</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09320638328790665</v>
+        <v>0.9908738732337952</v>
       </c>
     </row>
   </sheetData>
